--- a/WordCount.xlsx
+++ b/WordCount.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -667,11 +667,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1477,11 +1477,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1915,36 +1915,6 @@
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>ihaveliketheintrosmutedsoyoucanthearitlikethewelcomevivianaorwhatever</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>sorightnowitsaneighborwhatitsreditsenabled</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
